--- a/data/trans_camb/P25_6-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_6-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 3,29</t>
+          <t>-2,47; 2,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,79</t>
+          <t>-2,16; 3,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,35</t>
+          <t>-1,97; 4,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 5,04</t>
+          <t>-2,14; 4,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,71</t>
+          <t>-0,95; 5,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,88</t>
+          <t>-0,54; 4,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,26</t>
+          <t>-1,24; 3,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,96</t>
+          <t>0,58; 6,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,34</t>
+          <t>-4,65; 1,57</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 2,46</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 3,18</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 2,78</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 4,33</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 2,29</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 3,05</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,48%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>50,3%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>67,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>-18,16%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-5,48%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24,64%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>40,54%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-2,09%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>11,17%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,38; 78,8</t>
+          <t>-34,51; 62,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 89,58</t>
+          <t>-29,59; 74,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 70,81</t>
+          <t>-29,32; 85,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 144,89</t>
+          <t>-25,88; 93,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 106,25</t>
+          <t>-13,5; 110,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 136,47</t>
+          <t>-9,13; 135,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 77,73</t>
+          <t>-20,65; 110,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 70,49</t>
+          <t>8,91; 182,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 76,03</t>
+          <t>-46,36; 26,82</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-39,09; 47,5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-8,56; 74,07</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-17,14; 62,11</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 100,08</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-27,58; 37,84</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-17,0; 52,89</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,05</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-2,81</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 0,19</t>
+          <t>-5,45; 0,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 3,32</t>
+          <t>-3,32; 3,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 1,72</t>
+          <t>-2,36; 5,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 1,62</t>
+          <t>-8,27; -1,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 4,08</t>
+          <t>-4,98; 1,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 6,59</t>
+          <t>-5,26; 0,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 0,26</t>
+          <t>-3,32; 4,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,62</t>
+          <t>-2,69; 4,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 2,71</t>
+          <t>-4,64; 4,68</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 5,52</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 0,1</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 2,6</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 3,79</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; 0,34</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 2,38</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-38,89%</t>
+          <t>-37,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>-0,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-33,19%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-22,11%</t>
+          <t>-66,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>-38,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>-29,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-30,83%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-8,17%</t>
+          <t>-6,83%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,55%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-33,24%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>20,57%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-37,74%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-12,99%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-68,89; 8,33</t>
+          <t>-66,05; 10,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,51; 77,58</t>
+          <t>-43,1; 76,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,43; 40,13</t>
+          <t>-30,97; 120,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,12; 43,29</t>
+          <t>-87,48; -23,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 102,55</t>
+          <t>-78,55; 73,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,3; 152,14</t>
+          <t>-63,31; 18,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-53,16; 6,7</t>
+          <t>-44,03; 91,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 56,24</t>
+          <t>-35,24; 90,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-48,62; 53,04</t>
+          <t>-48,3; 77,71</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-53,63; 152,18</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-56,6; 5,59</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-32,71; 52,18</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-19,0; 78,65</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-60,5; 6,82</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-51,07; 79,71</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-5,88</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,11</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-1,07</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 3,33</t>
+          <t>-9,8; 5,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 2,13</t>
+          <t>-11,57; 3,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-13,0; 0,48</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,47; 7,42</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 11,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-6,17; 6,8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 11,11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,78; 8,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-6,73; 3,36</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-5,52; 4,53</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 3,73</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 4,64</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,68; 2,53</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-27,72%</t>
+          <t>-21,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-41,62%</t>
+          <t>-37,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-55,72%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>13,43%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>70,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>54,63%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-12,07%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,02%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-11,27%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-29,56%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,21; 60,19</t>
+          <t>-64,93; 94,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-79,68; 37,7</t>
+          <t>-76,17; 73,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-87,6; 31,88</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-54,77; 212,03</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,55; 287,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-61,18; 186,54</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-39,18; 258,46</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-58,22; 189,28</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-54,05; 58,79</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-44,9; 73,54</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-49,61; 64,4</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-41,11; 72,02</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-65,98; 44,02</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,89</t>
+          <t>-2,89; 0,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,99</t>
+          <t>-2,28; 1,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,45</t>
+          <t>-1,98; 2,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,49</t>
+          <t>-2,65; 2,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,46</t>
+          <t>-1,15; 3,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,0</t>
+          <t>-1,48; 2,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,09</t>
+          <t>-0,88; 3,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 2,24</t>
+          <t>-0,16; 4,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,16</t>
+          <t>-3,64; 1,32</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 2,23</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 1,15</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 2,12</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 3,05</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 0,96</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 2,1</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-17,5%</t>
+          <t>-16,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>-2,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,58%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>-1,33%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>37,59%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>-14,91%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-3,55%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-4,61%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9,2%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>20,27%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-8,79%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,16; 17,1</t>
+          <t>-37,16; 18,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 39,06</t>
+          <t>-30,42; 33,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,5; 27,53</t>
+          <t>-26,28; 43,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 58,43</t>
+          <t>-33,39; 46,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 78,82</t>
+          <t>-17,1; 81,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 88,07</t>
+          <t>-22,46; 49,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 21,74</t>
+          <t>-13,2; 71,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 43,97</t>
+          <t>-3,01; 86,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 41,95</t>
+          <t>-39,71; 20,29</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-33,73; 40,33</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-23,71; 20,85</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-13,35; 38,74</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 58,05</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-29,33; 14,19</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-20,09; 39,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
